--- a/results/tables/2025-03-23/table_s3.xlsx
+++ b/results/tables/2025-03-23/table_s3.xlsx
@@ -7,18 +7,19 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="cLEC-Ag-high-model 1" sheetId="1" r:id="rId1"/>
-    <sheet name="fLEC-Ag-high-model 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Collecting-Ag-high-model 1" sheetId="3" r:id="rId3"/>
-    <sheet name="cLEC-Ag-high-model 2" sheetId="4" r:id="rId4"/>
-    <sheet name="fLEC-Ag-high-model 2" sheetId="5" r:id="rId5"/>
-    <sheet name="Collecting-Ag-high-model 2" sheetId="6" r:id="rId6"/>
-    <sheet name="cLEC-Ag-low-model 1" sheetId="7" r:id="rId7"/>
-    <sheet name="fLEC-Ag-low-model 1" sheetId="8" r:id="rId8"/>
-    <sheet name="Collecting-Ag-low-model 1" sheetId="9" r:id="rId9"/>
-    <sheet name="cLEC-Ag-low-model 2" sheetId="10" r:id="rId10"/>
-    <sheet name="fLEC-Ag-low-model 2" sheetId="11" r:id="rId11"/>
-    <sheet name="Collecting-Ag-low-model 2" sheetId="12" r:id="rId12"/>
+    <sheet name="description" sheetId="1" r:id="rId1"/>
+    <sheet name="cLEC-Ag-high-model 1" sheetId="2" r:id="rId2"/>
+    <sheet name="fLEC-Ag-high-model 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Collecting-Ag-high-model 1" sheetId="4" r:id="rId4"/>
+    <sheet name="cLEC-Ag-high-model 2" sheetId="5" r:id="rId5"/>
+    <sheet name="fLEC-Ag-high-model 2" sheetId="6" r:id="rId6"/>
+    <sheet name="Collecting-Ag-high-model 2" sheetId="7" r:id="rId7"/>
+    <sheet name="cLEC-Ag-low-model 1" sheetId="8" r:id="rId8"/>
+    <sheet name="fLEC-Ag-low-model 1" sheetId="9" r:id="rId9"/>
+    <sheet name="Collecting-Ag-low-model 1" sheetId="10" r:id="rId10"/>
+    <sheet name="cLEC-Ag-low-model 2" sheetId="11" r:id="rId11"/>
+    <sheet name="fLEC-Ag-low-model 2" sheetId="12" r:id="rId12"/>
+    <sheet name="Collecting-Ag-low-model 2" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,2614 +361,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Cluster</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>cell_type</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>model_name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>gene_module</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>db</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>GeneRatio</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>BgRatio</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>pvalue</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>p.adjust</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>geneID</t>
+          <t>description</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>GO:0050750</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>low-density lipoprotein particle receptor binding</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>MF</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>4/92</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>25/14272</t>
-        </is>
-      </c>
-      <c r="J2">
-        <v>1.843961701650757E-05</v>
-      </c>
-      <c r="K2">
-        <v>0.005219881357966976</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Clu/App/Dab2/Ldlrap1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>GO:0070325</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>lipoprotein particle receptor binding</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>MF</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>4/92</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>28/14272</t>
-        </is>
-      </c>
-      <c r="J3">
-        <v>2.94077822984055E-05</v>
-      </c>
-      <c r="K3">
-        <v>0.005219881357966976</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Clu/App/Dab2/Ldlrap1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>GO:0061097</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>regulation of protein tyrosine kinase activity</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>6/93</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>68/14298</t>
-        </is>
-      </c>
-      <c r="J4">
-        <v>5.091177310713499E-06</v>
-      </c>
-      <c r="K4">
-        <v>0.005938971855766427</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Tgfa/Psen2/Gas6/Aplp2/App/Sh3bp5</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GO:0045859</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>regulation of protein kinase activity</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>14/93</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>524/14298</t>
-        </is>
-      </c>
-      <c r="J5">
-        <v>6.867004949165151E-06</v>
-      </c>
-      <c r="K5">
-        <v>0.005938971855766427</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Clu/Tgfa/Psen2/Gas6/Map4k2/Aplp2/Cd24a/App/Ccnd1/Sh3bp5/Ccnyl1/Dab2/Kat2b/Csf1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>GO:0043549</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>regulation of kinase activity</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>15/93</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>606/14298</t>
-        </is>
-      </c>
-      <c r="J6">
-        <v>7.82939401865026E-06</v>
-      </c>
-      <c r="K6">
-        <v>0.005938971855766427</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Clu/Tgfa/Psen2/Gas6/Map4k2/Aplp2/Cd24a/Kdr/App/Ccnd1/Sh3bp5/Ccnyl1/Dab2/Kat2b/Csf1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>GO:0060548</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>negative regulation of cell death</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>19/93</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>950/14298</t>
-        </is>
-      </c>
-      <c r="J7">
-        <v>9.257400067242839E-06</v>
-      </c>
-      <c r="K7">
-        <v>0.005938971855766427</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Clu/Tbx1/Tgfa/Srsf6/Psen2/Sgk1/Gas6/Lgmn/Kdr/Ddb1/App/Ccnd1/Ier3/Psap/Dab2/Grn/Neo1/Csf1/Psmc1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>GO:0050678</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>regulation of epithelial cell proliferation</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>11/93</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>346/14298</t>
-        </is>
-      </c>
-      <c r="J8">
-        <v>1.473251682914982E-05</v>
-      </c>
-      <c r="K8">
-        <v>0.005938971855766427</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Tbx1/Tgfa/Atp5a1/Srsf6/Aggf1/Kdr/C5ar2/Ccnd1/Fmc1/Dab2/Grn</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GO:0051338</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>regulation of transferase activity</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>16/93</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>722/14298</t>
-        </is>
-      </c>
-      <c r="J9">
-        <v>1.508722641325403E-05</v>
-      </c>
-      <c r="K9">
-        <v>0.005938971855766427</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Clu/Tgfa/Psen2/Gas6/Map4k2/Aplp2/Parm1/Cd24a/Kdr/App/Ccnd1/Sh3bp5/Ccnyl1/Dab2/Kat2b/Csf1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GO:0007176</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>regulation of epidermal growth factor-activated receptor activity</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>4/93</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>24/14298</t>
-        </is>
-      </c>
-      <c r="J10">
-        <v>1.613224795900853E-05</v>
-      </c>
-      <c r="K10">
-        <v>0.005938971855766427</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Tgfa/Psen2/Aplp2/App</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>GO:0048260</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>positive regulation of receptor-mediated endocytosis</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>5/93</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>57/14298</t>
-        </is>
-      </c>
-      <c r="J11">
-        <v>3.34879353128401E-05</v>
-      </c>
-      <c r="K11">
-        <v>0.009049095078682913</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Clu/App/Cd63/Dab2/Ldlrap1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>GO:0002688</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>regulation of leukocyte chemotaxis</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>6/93</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>106/14298</t>
-        </is>
-      </c>
-      <c r="J12">
-        <v>6.510047172898863E-05</v>
-      </c>
-      <c r="K12">
-        <v>0.01524374627258689</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Jam3/Gas6/Lgmn/App/C5ar2/Csf1</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>GO:0050673</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>epithelial cell proliferation</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>11/93</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>411/14298</t>
-        </is>
-      </c>
-      <c r="J13">
-        <v>7.108291479701502E-05</v>
-      </c>
-      <c r="K13">
-        <v>0.01524374627258689</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Tbx1/Tgfa/Atp5a1/Srsf6/Aggf1/Kdr/C5ar2/Ccnd1/Fmc1/Dab2/Grn</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>GO:0018212</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>peptidyl-tyrosine modification</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>9/93</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>279/14298</t>
-        </is>
-      </c>
-      <c r="J14">
-        <v>8.281429872573398E-05</v>
-      </c>
-      <c r="K14">
-        <v>0.01524374627258689</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Tgfa/Psen2/Gas6/Aplp2/Cd24a/Kdr/App/Sh3bp5/Arl2bp</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>GO:0000323</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>lytic vacuole</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>11/92</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>456/14353</t>
-        </is>
-      </c>
-      <c r="J15">
-        <v>0.0001560544199826832</v>
-      </c>
-      <c r="K15">
-        <v>0.01593999490895949</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Ctsd/Psen2/Prcp/Naaa/H2-K1/Lgmn/App/Cd63/Psap/Grn/Vps13b</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>GO:0005764</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>lysosome</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>11/92</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>456/14353</t>
-        </is>
-      </c>
-      <c r="J16">
-        <v>0.0001560544199826832</v>
-      </c>
-      <c r="K16">
-        <v>0.01593999490895949</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Ctsd/Psen2/Prcp/Naaa/H2-K1/Lgmn/App/Cd63/Psap/Grn/Vps13b</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>GO:0045121</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>membrane raft</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>9/92</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>319/14353</t>
-        </is>
-      </c>
-      <c r="J17">
-        <v>0.0002035662171447927</v>
-      </c>
-      <c r="K17">
-        <v>0.01593999490895949</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Ctsd/Atp5a1/Psen2/Tubb5/Cavin1/Cd24a/Kdr/App/Plcd1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>GO:0098857</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>membrane microdomain</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>9/92</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>320/14353</t>
-        </is>
-      </c>
-      <c r="J18">
-        <v>0.0002083659465223463</v>
-      </c>
-      <c r="K18">
-        <v>0.01593999490895949</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Ctsd/Atp5a1/Psen2/Tubb5/Cavin1/Cd24a/Kdr/App/Plcd1</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>GO:0005768</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>endosome</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>15/92</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>847/14353</t>
-        </is>
-      </c>
-      <c r="J19">
-        <v>0.0002976271425607804</v>
-      </c>
-      <c r="K19">
-        <v>0.01821478112471976</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Ctsd/Psen2/H2-K1/Parm1/Spns2/Lgmn/Kdr/App/Atp6ap1/Cd63/Psap/Grn/Vps13b/Vps52/Ldlrap1</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>GO:0045178</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>basal part of cell</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>7/92</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>224/14353</t>
-        </is>
-      </c>
-      <c r="J20">
-        <v>0.0005845474560835048</v>
-      </c>
-      <c r="K20">
-        <v>0.02580986920682657</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Tgfa/Prcp/Homer3/C5ar2/Clasp1/Cldn11/Ldlrap1</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>GO:2000147</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>positive regulation of cell motility</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>12/93</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>549/14298</t>
-        </is>
-      </c>
-      <c r="J21">
-        <v>0.0002225705136015997</v>
-      </c>
-      <c r="K21">
-        <v>0.02886154738950564</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Jam3/Atp5a1/Gas6/Cavin1/Lgmn/Kdr/App/Clasp1/Dab2/Grn/Elp3/Csf1</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>GO:0060749</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>mammary gland alveolus development</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>3/93</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>19/14298</t>
-        </is>
-      </c>
-      <c r="J22">
-        <v>0.0002393740209983203</v>
-      </c>
-      <c r="K22">
-        <v>0.02886154738950564</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Tgfa/Socs2/Ccnd1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>GO:0061377</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>mammary gland lobule development</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>3/93</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>19/14298</t>
-        </is>
-      </c>
-      <c r="J23">
-        <v>0.0002393740209983203</v>
-      </c>
-      <c r="K23">
-        <v>0.02886154738950564</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Tgfa/Socs2/Ccnd1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>GO:0050920</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>regulation of chemotaxis</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>7/93</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>194/14298</t>
-        </is>
-      </c>
-      <c r="J24">
-        <v>0.000268942835491934</v>
-      </c>
-      <c r="K24">
-        <v>0.02886154738950564</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Jam3/Gas6/Lgmn/Kdr/App/C5ar2/Csf1</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>GO:0040017</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>positive regulation of locomotion</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>12/93</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>562/14298</t>
-        </is>
-      </c>
-      <c r="J25">
-        <v>0.0002758175700806269</v>
-      </c>
-      <c r="K25">
-        <v>0.02886154738950564</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Jam3/Atp5a1/Gas6/Cavin1/Lgmn/Kdr/App/Clasp1/Dab2/Grn/Elp3/Csf1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>GO:0003085</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>negative regulation of systemic arterial blood pressure</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>3/93</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>20/14298</t>
-        </is>
-      </c>
-      <c r="J26">
-        <v>0.0002802923286135838</v>
-      </c>
-      <c r="K26">
-        <v>0.02886154738950564</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Prcp/Kdr/Ier3</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>GO:0006897</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>endocytosis</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>11/93</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>490/14298</t>
-        </is>
-      </c>
-      <c r="J27">
-        <v>0.0003301053285147593</v>
-      </c>
-      <c r="K27">
-        <v>0.02886154738950564</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Clu/Canx/Pear1/Tub/Cd24a/App/Ctbp1/Cd63/Dab2/Grn/Ldlrap1</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>GO:0040012</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>regulation of locomotion</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>16/93</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>938/14298</t>
-        </is>
-      </c>
-      <c r="J28">
-        <v>0.0003310265365180827</v>
-      </c>
-      <c r="K28">
-        <v>0.02886154738950564</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Jam3/Atp5a1/Prcp/Gas6/Cavin1/Spns2/Lgmn/Kdr/App/C5ar2/Cd63/Clasp1/Dab2/Grn/Elp3/Csf1</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>GO:0010562</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>positive regulation of phosphorus metabolic process</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>14/93</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>751/14298</t>
-        </is>
-      </c>
-      <c r="J29">
-        <v>0.0003359900743830691</v>
-      </c>
-      <c r="K29">
-        <v>0.02886154738950564</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Clu/Tbx1/Tgfa/Gdf10/Gas6/Map4k2/Cd24a/Kdr/App/Ccnd1/Plcd1/Dab2/Csf1/Arl2bp</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>GO:0045937</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>positive regulation of phosphate metabolic process</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>14/93</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>751/14298</t>
-        </is>
-      </c>
-      <c r="J30">
-        <v>0.0003359900743830691</v>
-      </c>
-      <c r="K30">
-        <v>0.02886154738950564</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Clu/Tbx1/Tgfa/Gdf10/Gas6/Map4k2/Cd24a/Kdr/App/Ccnd1/Plcd1/Dab2/Csf1/Arl2bp</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>GO:0043410</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>positive regulation of MAPK cascade</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>10/93</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>421/14298</t>
-        </is>
-      </c>
-      <c r="J31">
-        <v>0.0004020445190376989</v>
-      </c>
-      <c r="K31">
-        <v>0.03210536130663014</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Tbx1/Tgfa/Gas6/Map4k2/Cd24a/Kdr/App/C5ar2/Psap/Dab2</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>GO:0048646</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>anatomical structure formation involved in morphogenesis</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>16/93</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>999/14298</t>
-        </is>
-      </c>
-      <c r="J32">
-        <v>0.0006620023729223285</v>
-      </c>
-      <c r="K32">
-        <v>0.04094718951178652</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Tbx1/Tgfa/Jam3/Psen2/Prcp/Junb/Aggf1/Dusp2/Kdr/Clasp1/Plcd1/Psap/Grn/Neo1/Vps13b/Fbln5</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>GO:0048878</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>chemical homeostasis</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>14/93</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>805/14298</t>
-        </is>
-      </c>
-      <c r="J33">
-        <v>0.0006721453653901777</v>
-      </c>
-      <c r="K33">
-        <v>0.04094718951178652</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Psen2/Prcp/Sgk1/Gas6/Aplp2/Cd24a/Kdr/App/Atp6ap1/Plcd1/Grn/Neo1/Hectd4/Ldlrap1</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>GO:0051347</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>positive regulation of transferase activity</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>10/93</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>454/14298</t>
-        </is>
-      </c>
-      <c r="J34">
-        <v>0.0007231713461573668</v>
-      </c>
-      <c r="K34">
-        <v>0.04094718951178652</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Clu/Tgfa/Gas6/Map4k2/Parm1/Cd24a/Kdr/App/Ccnd1/Csf1</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>GO:0032640</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>tumor necrosis factor production</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>6/93</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>166/14298</t>
-        </is>
-      </c>
-      <c r="J35">
-        <v>0.0007412415503945631</v>
-      </c>
-      <c r="K35">
-        <v>0.04094718951178652</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Clu/Psen2/Gas6/Cd24a/App/C5ar2</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>GO:0070997</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>neuron death</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>9/93</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>383/14298</t>
-        </is>
-      </c>
-      <c r="J36">
-        <v>0.0008557577736099396</v>
-      </c>
-      <c r="K36">
-        <v>0.04410575565185629</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Clu/Lgmn/Kdr/App/Ccnd1/Grn/Neo1/Csf1/Psmc1</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>GO:0150076</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>neuroinflammatory response</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>4/93</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>66/14298</t>
-        </is>
-      </c>
-      <c r="J37">
-        <v>0.0008883537113364972</v>
-      </c>
-      <c r="K37">
-        <v>0.04488799047282654</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Clu/Psen2/App/Grn</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>GO:0002092</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>positive regulation of receptor internalization</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>3/93</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>30/14298</t>
-        </is>
-      </c>
-      <c r="J38">
-        <v>0.0009523443790110222</v>
-      </c>
-      <c r="K38">
-        <v>0.0462162184830447</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>App/Cd63/Dab2</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>GO:0050900</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>leukocyte migration</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>8/93</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>313/14298</t>
-        </is>
-      </c>
-      <c r="J39">
-        <v>0.0009789822297718725</v>
-      </c>
-      <c r="K39">
-        <v>0.0462162184830447</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Jam3/Gas6/Cd24a/Spns2/Lgmn/App/C5ar2/Csf1</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>GO:0042982</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>amyloid precursor protein metabolic process</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>4/93</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>68/14298</t>
-        </is>
-      </c>
-      <c r="J40">
-        <v>0.0009939281747628221</v>
-      </c>
-      <c r="K40">
-        <v>0.0462162184830447</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Clu/Psen2/App/Ldlrap1</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>GO:0007617</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>mating behavior</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>3/93</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>31/14298</t>
-        </is>
-      </c>
-      <c r="J41">
-        <v>0.001049438294723112</v>
-      </c>
-      <c r="K41">
-        <v>0.0462162184830447</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Aplp2/App/Grn</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>GO:0060326</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>cell chemotaxis</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>7/93</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>246/14298</t>
-        </is>
-      </c>
-      <c r="J42">
-        <v>0.001104964737189769</v>
-      </c>
-      <c r="K42">
-        <v>0.0462162184830447</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Jam3/Gas6/Lgmn/Kdr/App/C5ar2/Csf1</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>GO:0048488</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>synaptic vesicle endocytosis</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>4/93</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>70/14298</t>
-        </is>
-      </c>
-      <c r="J43">
-        <v>0.001108031721501328</v>
-      </c>
-      <c r="K43">
-        <v>0.0462162184830447</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Canx/Cd24a/Ctbp1/Grn</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>GO:0017053</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>transcription repressor complex</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>4/92</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>73/14353</t>
-        </is>
-      </c>
-      <c r="J44">
-        <v>0.001227608810092666</v>
-      </c>
-      <c r="K44">
-        <v>0.04695603698604448</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Spen/Ctbp1/Ccnd1/H1f0</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>cLEC-Ag-high-model 1</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>cLEC</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Ag-high</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>GO:0045913</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>positive regulation of carbohydrate metabolic process</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>4/93</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>72/14298</t>
-        </is>
-      </c>
-      <c r="J45">
-        <v>0.001231028612773635</v>
-      </c>
-      <c r="K45">
-        <v>0.04956813648621339</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Ddb1/App/Plcd1/Kat2b</t>
+          <t>Gene ontology terms are shown for Ag-low and Ag-high gene modules. P values were calculated internally using a hypergeometric test and adjusted using Benjamini-Hochberg correction. Redundant GO terms were removed based on semantic similarity using the clusterProfiler package.</t>
         </is>
       </c>
     </row>
@@ -2977,6 +378,371 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Cluster</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>cell_type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>model_name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>gene_module</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>db</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>GeneRatio</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>BgRatio</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>p.adjust</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>geneID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Collecting-Ag-low-model 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Collecting</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ag-low</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GO:0005604</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>basement membrane</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>5/42</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>92/13849</t>
+        </is>
+      </c>
+      <c r="J2">
+        <v>8.122537951043936E-06</v>
+      </c>
+      <c r="K2">
+        <v>0.001445811755285821</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Nid2/Dlg1/Lama4/Pxdn/Col4a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Collecting-Ag-low-model 1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Collecting</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ag-low</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>GO:0005198</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>structural molecule activity</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>MF</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>8/38</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>469/13756</t>
+        </is>
+      </c>
+      <c r="J3">
+        <v>3.414424777481135E-05</v>
+      </c>
+      <c r="K3">
+        <v>0.006350830086114912</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Nid2/Uba52/Dlg1/Lama4/Tln1/Pxdn/Col4a2/Mrpl24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Collecting-Ag-low-model 1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Collecting</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Ag-low</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>GO:0005172</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>vascular endothelial growth factor receptor binding</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>MF</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2/38</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>15/13756</t>
+        </is>
+      </c>
+      <c r="J4">
+        <v>0.0007627308652964124</v>
+      </c>
+      <c r="K4">
+        <v>0.04728931364837757</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Angpt2/Ccdc88a</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Collecting-Ag-low-model 1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Collecting</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Ag-low</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GO:0005751</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>mitochondrial respiratory chain complex IV</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2/42</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>18/13849</t>
+        </is>
+      </c>
+      <c r="J5">
+        <v>0.001332119548280001</v>
+      </c>
+      <c r="K5">
+        <v>0.04742345591876804</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Cox5b/Cox6b1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Collecting-Ag-low-model 1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Collecting</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ag-low</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>GO:0045277</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>respiratory chain complex IV</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2/42</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>20/13849</t>
+        </is>
+      </c>
+      <c r="J6">
+        <v>0.001647920393540196</v>
+      </c>
+      <c r="K6">
+        <v>0.04888830500835915</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Cox5b/Cox6b1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L7"/>
   <sheetViews>
@@ -3399,7 +1165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L3"/>
   <sheetViews>
@@ -3590,7 +1356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -3667,6 +1433,2633 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Cluster</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>cell_type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>model_name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>gene_module</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>db</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>GeneRatio</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>BgRatio</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>p.adjust</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>geneID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GO:0050750</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>low-density lipoprotein particle receptor binding</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>MF</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4/92</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>25/14272</t>
+        </is>
+      </c>
+      <c r="J2">
+        <v>1.843961701650757E-05</v>
+      </c>
+      <c r="K2">
+        <v>0.005219881357966976</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Clu/App/Dab2/Ldlrap1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>GO:0070325</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>lipoprotein particle receptor binding</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>MF</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4/92</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>28/14272</t>
+        </is>
+      </c>
+      <c r="J3">
+        <v>2.94077822984055E-05</v>
+      </c>
+      <c r="K3">
+        <v>0.005219881357966976</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Clu/App/Dab2/Ldlrap1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>GO:0061097</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>regulation of protein tyrosine kinase activity</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>6/93</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>68/14298</t>
+        </is>
+      </c>
+      <c r="J4">
+        <v>5.091177310713499E-06</v>
+      </c>
+      <c r="K4">
+        <v>0.005938971855766427</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Tgfa/Psen2/Gas6/Aplp2/App/Sh3bp5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GO:0045859</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>regulation of protein kinase activity</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>14/93</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>524/14298</t>
+        </is>
+      </c>
+      <c r="J5">
+        <v>6.867004949165151E-06</v>
+      </c>
+      <c r="K5">
+        <v>0.005938971855766427</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Clu/Tgfa/Psen2/Gas6/Map4k2/Aplp2/Cd24a/App/Ccnd1/Sh3bp5/Ccnyl1/Dab2/Kat2b/Csf1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>GO:0043549</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>regulation of kinase activity</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>15/93</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>606/14298</t>
+        </is>
+      </c>
+      <c r="J6">
+        <v>7.82939401865026E-06</v>
+      </c>
+      <c r="K6">
+        <v>0.005938971855766427</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Clu/Tgfa/Psen2/Gas6/Map4k2/Aplp2/Cd24a/Kdr/App/Ccnd1/Sh3bp5/Ccnyl1/Dab2/Kat2b/Csf1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GO:0060548</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>negative regulation of cell death</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>19/93</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>950/14298</t>
+        </is>
+      </c>
+      <c r="J7">
+        <v>9.257400067242839E-06</v>
+      </c>
+      <c r="K7">
+        <v>0.005938971855766427</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Clu/Tbx1/Tgfa/Srsf6/Psen2/Sgk1/Gas6/Lgmn/Kdr/Ddb1/App/Ccnd1/Ier3/Psap/Dab2/Grn/Neo1/Csf1/Psmc1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GO:0050678</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>regulation of epithelial cell proliferation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>11/93</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>346/14298</t>
+        </is>
+      </c>
+      <c r="J8">
+        <v>1.473251682914982E-05</v>
+      </c>
+      <c r="K8">
+        <v>0.005938971855766427</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Tbx1/Tgfa/Atp5a1/Srsf6/Aggf1/Kdr/C5ar2/Ccnd1/Fmc1/Dab2/Grn</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GO:0051338</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>regulation of transferase activity</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>16/93</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>722/14298</t>
+        </is>
+      </c>
+      <c r="J9">
+        <v>1.508722641325403E-05</v>
+      </c>
+      <c r="K9">
+        <v>0.005938971855766427</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Clu/Tgfa/Psen2/Gas6/Map4k2/Aplp2/Parm1/Cd24a/Kdr/App/Ccnd1/Sh3bp5/Ccnyl1/Dab2/Kat2b/Csf1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GO:0007176</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>regulation of epidermal growth factor-activated receptor activity</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>4/93</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>24/14298</t>
+        </is>
+      </c>
+      <c r="J10">
+        <v>1.613224795900853E-05</v>
+      </c>
+      <c r="K10">
+        <v>0.005938971855766427</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Tgfa/Psen2/Aplp2/App</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>GO:0048260</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>positive regulation of receptor-mediated endocytosis</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>5/93</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>57/14298</t>
+        </is>
+      </c>
+      <c r="J11">
+        <v>3.34879353128401E-05</v>
+      </c>
+      <c r="K11">
+        <v>0.009049095078682913</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Clu/App/Cd63/Dab2/Ldlrap1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>GO:0002688</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>regulation of leukocyte chemotaxis</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>6/93</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>106/14298</t>
+        </is>
+      </c>
+      <c r="J12">
+        <v>6.510047172898863E-05</v>
+      </c>
+      <c r="K12">
+        <v>0.01524374627258689</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Jam3/Gas6/Lgmn/App/C5ar2/Csf1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>GO:0050673</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>epithelial cell proliferation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>11/93</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>411/14298</t>
+        </is>
+      </c>
+      <c r="J13">
+        <v>7.108291479701502E-05</v>
+      </c>
+      <c r="K13">
+        <v>0.01524374627258689</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Tbx1/Tgfa/Atp5a1/Srsf6/Aggf1/Kdr/C5ar2/Ccnd1/Fmc1/Dab2/Grn</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>GO:0018212</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>peptidyl-tyrosine modification</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>9/93</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>279/14298</t>
+        </is>
+      </c>
+      <c r="J14">
+        <v>8.281429872573398E-05</v>
+      </c>
+      <c r="K14">
+        <v>0.01524374627258689</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Tgfa/Psen2/Gas6/Aplp2/Cd24a/Kdr/App/Sh3bp5/Arl2bp</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>GO:0000323</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>lytic vacuole</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>11/92</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>456/14353</t>
+        </is>
+      </c>
+      <c r="J15">
+        <v>0.0001560544199826832</v>
+      </c>
+      <c r="K15">
+        <v>0.01593999490895949</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Ctsd/Psen2/Prcp/Naaa/H2-K1/Lgmn/App/Cd63/Psap/Grn/Vps13b</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>GO:0005764</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>lysosome</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>11/92</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>456/14353</t>
+        </is>
+      </c>
+      <c r="J16">
+        <v>0.0001560544199826832</v>
+      </c>
+      <c r="K16">
+        <v>0.01593999490895949</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Ctsd/Psen2/Prcp/Naaa/H2-K1/Lgmn/App/Cd63/Psap/Grn/Vps13b</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>GO:0045121</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>membrane raft</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>9/92</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>319/14353</t>
+        </is>
+      </c>
+      <c r="J17">
+        <v>0.0002035662171447927</v>
+      </c>
+      <c r="K17">
+        <v>0.01593999490895949</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Ctsd/Atp5a1/Psen2/Tubb5/Cavin1/Cd24a/Kdr/App/Plcd1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>GO:0098857</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>membrane microdomain</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>9/92</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>320/14353</t>
+        </is>
+      </c>
+      <c r="J18">
+        <v>0.0002083659465223463</v>
+      </c>
+      <c r="K18">
+        <v>0.01593999490895949</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Ctsd/Atp5a1/Psen2/Tubb5/Cavin1/Cd24a/Kdr/App/Plcd1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>GO:0005768</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>endosome</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>15/92</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>847/14353</t>
+        </is>
+      </c>
+      <c r="J19">
+        <v>0.0002976271425607804</v>
+      </c>
+      <c r="K19">
+        <v>0.01821478112471976</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Ctsd/Psen2/H2-K1/Parm1/Spns2/Lgmn/Kdr/App/Atp6ap1/Cd63/Psap/Grn/Vps13b/Vps52/Ldlrap1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>GO:0045178</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>basal part of cell</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>7/92</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>224/14353</t>
+        </is>
+      </c>
+      <c r="J20">
+        <v>0.0005845474560835048</v>
+      </c>
+      <c r="K20">
+        <v>0.02580986920682657</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Tgfa/Prcp/Homer3/C5ar2/Clasp1/Cldn11/Ldlrap1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>GO:2000147</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>positive regulation of cell motility</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>12/93</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>549/14298</t>
+        </is>
+      </c>
+      <c r="J21">
+        <v>0.0002225705136015997</v>
+      </c>
+      <c r="K21">
+        <v>0.02886154738950564</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Jam3/Atp5a1/Gas6/Cavin1/Lgmn/Kdr/App/Clasp1/Dab2/Grn/Elp3/Csf1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>GO:0060749</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>mammary gland alveolus development</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>3/93</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>19/14298</t>
+        </is>
+      </c>
+      <c r="J22">
+        <v>0.0002393740209983203</v>
+      </c>
+      <c r="K22">
+        <v>0.02886154738950564</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Tgfa/Socs2/Ccnd1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>GO:0061377</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>mammary gland lobule development</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>3/93</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>19/14298</t>
+        </is>
+      </c>
+      <c r="J23">
+        <v>0.0002393740209983203</v>
+      </c>
+      <c r="K23">
+        <v>0.02886154738950564</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Tgfa/Socs2/Ccnd1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>GO:0050920</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>regulation of chemotaxis</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>7/93</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>194/14298</t>
+        </is>
+      </c>
+      <c r="J24">
+        <v>0.000268942835491934</v>
+      </c>
+      <c r="K24">
+        <v>0.02886154738950564</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Jam3/Gas6/Lgmn/Kdr/App/C5ar2/Csf1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>GO:0040017</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>positive regulation of locomotion</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>12/93</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>562/14298</t>
+        </is>
+      </c>
+      <c r="J25">
+        <v>0.0002758175700806269</v>
+      </c>
+      <c r="K25">
+        <v>0.02886154738950564</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Jam3/Atp5a1/Gas6/Cavin1/Lgmn/Kdr/App/Clasp1/Dab2/Grn/Elp3/Csf1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>GO:0003085</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>negative regulation of systemic arterial blood pressure</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>3/93</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>20/14298</t>
+        </is>
+      </c>
+      <c r="J26">
+        <v>0.0002802923286135838</v>
+      </c>
+      <c r="K26">
+        <v>0.02886154738950564</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Prcp/Kdr/Ier3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>GO:0006897</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>endocytosis</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>11/93</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>490/14298</t>
+        </is>
+      </c>
+      <c r="J27">
+        <v>0.0003301053285147593</v>
+      </c>
+      <c r="K27">
+        <v>0.02886154738950564</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Clu/Canx/Pear1/Tub/Cd24a/App/Ctbp1/Cd63/Dab2/Grn/Ldlrap1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>GO:0040012</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>regulation of locomotion</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>16/93</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>938/14298</t>
+        </is>
+      </c>
+      <c r="J28">
+        <v>0.0003310265365180827</v>
+      </c>
+      <c r="K28">
+        <v>0.02886154738950564</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Jam3/Atp5a1/Prcp/Gas6/Cavin1/Spns2/Lgmn/Kdr/App/C5ar2/Cd63/Clasp1/Dab2/Grn/Elp3/Csf1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>GO:0010562</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>positive regulation of phosphorus metabolic process</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>14/93</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>751/14298</t>
+        </is>
+      </c>
+      <c r="J29">
+        <v>0.0003359900743830691</v>
+      </c>
+      <c r="K29">
+        <v>0.02886154738950564</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Clu/Tbx1/Tgfa/Gdf10/Gas6/Map4k2/Cd24a/Kdr/App/Ccnd1/Plcd1/Dab2/Csf1/Arl2bp</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>GO:0045937</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>positive regulation of phosphate metabolic process</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>14/93</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>751/14298</t>
+        </is>
+      </c>
+      <c r="J30">
+        <v>0.0003359900743830691</v>
+      </c>
+      <c r="K30">
+        <v>0.02886154738950564</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Clu/Tbx1/Tgfa/Gdf10/Gas6/Map4k2/Cd24a/Kdr/App/Ccnd1/Plcd1/Dab2/Csf1/Arl2bp</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>GO:0043410</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>positive regulation of MAPK cascade</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>10/93</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>421/14298</t>
+        </is>
+      </c>
+      <c r="J31">
+        <v>0.0004020445190376989</v>
+      </c>
+      <c r="K31">
+        <v>0.03210536130663014</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Tbx1/Tgfa/Gas6/Map4k2/Cd24a/Kdr/App/C5ar2/Psap/Dab2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>GO:0048646</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>anatomical structure formation involved in morphogenesis</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>16/93</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>999/14298</t>
+        </is>
+      </c>
+      <c r="J32">
+        <v>0.0006620023729223285</v>
+      </c>
+      <c r="K32">
+        <v>0.04094718951178652</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Tbx1/Tgfa/Jam3/Psen2/Prcp/Junb/Aggf1/Dusp2/Kdr/Clasp1/Plcd1/Psap/Grn/Neo1/Vps13b/Fbln5</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>GO:0048878</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>chemical homeostasis</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>14/93</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>805/14298</t>
+        </is>
+      </c>
+      <c r="J33">
+        <v>0.0006721453653901777</v>
+      </c>
+      <c r="K33">
+        <v>0.04094718951178652</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Psen2/Prcp/Sgk1/Gas6/Aplp2/Cd24a/Kdr/App/Atp6ap1/Plcd1/Grn/Neo1/Hectd4/Ldlrap1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>GO:0051347</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>positive regulation of transferase activity</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>10/93</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>454/14298</t>
+        </is>
+      </c>
+      <c r="J34">
+        <v>0.0007231713461573668</v>
+      </c>
+      <c r="K34">
+        <v>0.04094718951178652</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Clu/Tgfa/Gas6/Map4k2/Parm1/Cd24a/Kdr/App/Ccnd1/Csf1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>GO:0032640</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>tumor necrosis factor production</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>6/93</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>166/14298</t>
+        </is>
+      </c>
+      <c r="J35">
+        <v>0.0007412415503945631</v>
+      </c>
+      <c r="K35">
+        <v>0.04094718951178652</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Clu/Psen2/Gas6/Cd24a/App/C5ar2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>GO:0070997</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>neuron death</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>9/93</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>383/14298</t>
+        </is>
+      </c>
+      <c r="J36">
+        <v>0.0008557577736099396</v>
+      </c>
+      <c r="K36">
+        <v>0.04410575565185629</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Clu/Lgmn/Kdr/App/Ccnd1/Grn/Neo1/Csf1/Psmc1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>GO:0150076</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>neuroinflammatory response</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>4/93</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>66/14298</t>
+        </is>
+      </c>
+      <c r="J37">
+        <v>0.0008883537113364972</v>
+      </c>
+      <c r="K37">
+        <v>0.04488799047282654</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Clu/Psen2/App/Grn</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>GO:0002092</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>positive regulation of receptor internalization</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>3/93</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>30/14298</t>
+        </is>
+      </c>
+      <c r="J38">
+        <v>0.0009523443790110222</v>
+      </c>
+      <c r="K38">
+        <v>0.0462162184830447</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>App/Cd63/Dab2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>GO:0050900</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>leukocyte migration</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>8/93</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>313/14298</t>
+        </is>
+      </c>
+      <c r="J39">
+        <v>0.0009789822297718725</v>
+      </c>
+      <c r="K39">
+        <v>0.0462162184830447</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Jam3/Gas6/Cd24a/Spns2/Lgmn/App/C5ar2/Csf1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>GO:0042982</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>amyloid precursor protein metabolic process</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>4/93</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>68/14298</t>
+        </is>
+      </c>
+      <c r="J40">
+        <v>0.0009939281747628221</v>
+      </c>
+      <c r="K40">
+        <v>0.0462162184830447</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Clu/Psen2/App/Ldlrap1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>GO:0007617</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>mating behavior</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>3/93</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>31/14298</t>
+        </is>
+      </c>
+      <c r="J41">
+        <v>0.001049438294723112</v>
+      </c>
+      <c r="K41">
+        <v>0.0462162184830447</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Aplp2/App/Grn</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>GO:0060326</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>cell chemotaxis</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>7/93</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>246/14298</t>
+        </is>
+      </c>
+      <c r="J42">
+        <v>0.001104964737189769</v>
+      </c>
+      <c r="K42">
+        <v>0.0462162184830447</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Jam3/Gas6/Lgmn/Kdr/App/C5ar2/Csf1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>GO:0048488</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>synaptic vesicle endocytosis</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>4/93</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>70/14298</t>
+        </is>
+      </c>
+      <c r="J43">
+        <v>0.001108031721501328</v>
+      </c>
+      <c r="K43">
+        <v>0.0462162184830447</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Canx/Cd24a/Ctbp1/Grn</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>GO:0017053</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>transcription repressor complex</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>4/92</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>73/14353</t>
+        </is>
+      </c>
+      <c r="J44">
+        <v>0.001227608810092666</v>
+      </c>
+      <c r="K44">
+        <v>0.04695603698604448</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Spen/Ctbp1/Ccnd1/H1f0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>cLEC-Ag-high-model 1</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cLEC</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>model 1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Ag-high</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>GO:0045913</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>positive regulation of carbohydrate metabolic process</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>4/93</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>72/14298</t>
+        </is>
+      </c>
+      <c r="J45">
+        <v>0.001231028612773635</v>
+      </c>
+      <c r="K45">
+        <v>0.04956813648621339</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Ddb1/App/Plcd1/Kat2b</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4436,7 +4829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
@@ -5671,7 +6064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L10"/>
   <sheetViews>
@@ -6268,7 +6661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L9"/>
   <sheetViews>
@@ -6807,7 +7200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -6882,7 +7275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -8929,7 +9322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -9002,369 +9395,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Cluster</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>cell_type</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>model_name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>gene_module</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>db</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>GeneRatio</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>BgRatio</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>pvalue</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>p.adjust</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>geneID</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Collecting-Ag-low-model 1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Collecting</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ag-low</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>GO:0005604</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>basement membrane</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>5/42</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>92/13849</t>
-        </is>
-      </c>
-      <c r="J2">
-        <v>8.122537951043936E-06</v>
-      </c>
-      <c r="K2">
-        <v>0.001445811755285821</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Nid2/Dlg1/Lama4/Pxdn/Col4a2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Collecting-Ag-low-model 1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Collecting</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ag-low</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>GO:0005198</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>structural molecule activity</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>MF</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>8/38</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>469/13756</t>
-        </is>
-      </c>
-      <c r="J3">
-        <v>3.414424777481135E-05</v>
-      </c>
-      <c r="K3">
-        <v>0.006350830086114912</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Nid2/Uba52/Dlg1/Lama4/Tln1/Pxdn/Col4a2/Mrpl24</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Collecting-Ag-low-model 1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Collecting</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ag-low</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>GO:0005172</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>vascular endothelial growth factor receptor binding</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>MF</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2/38</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>15/13756</t>
-        </is>
-      </c>
-      <c r="J4">
-        <v>0.0007627308652964124</v>
-      </c>
-      <c r="K4">
-        <v>0.04728931364837757</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Angpt2/Ccdc88a</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Collecting-Ag-low-model 1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Collecting</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Ag-low</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GO:0005751</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>mitochondrial respiratory chain complex IV</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2/42</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>18/13849</t>
-        </is>
-      </c>
-      <c r="J5">
-        <v>0.001332119548280001</v>
-      </c>
-      <c r="K5">
-        <v>0.04742345591876804</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Cox5b/Cox6b1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Collecting-Ag-low-model 1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Collecting</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>model 1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Ag-low</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>GO:0045277</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>respiratory chain complex IV</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2/42</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>20/13849</t>
-        </is>
-      </c>
-      <c r="J6">
-        <v>0.001647920393540196</v>
-      </c>
-      <c r="K6">
-        <v>0.04888830500835915</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Cox5b/Cox6b1</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>